--- a/rules/map_sti.xlsx
+++ b/rules/map_sti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Python\auto-sti-fax\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0716FF88-2E09-4114-8093-D6000F2CF6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649052B-D009-4382-B7F2-9E871AB5DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>SYPH</t>
   </si>
@@ -310,12 +310,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>HEP</t>
-  </si>
-  <si>
-    <t>Hepatitis</t>
-  </si>
-  <si>
     <t>HERP</t>
   </si>
   <si>
@@ -332,6 +326,12 @@
   </si>
   <si>
     <t>HPV</t>
+  </si>
+  <si>
+    <t>HEPB</t>
+  </si>
+  <si>
+    <t>Hepatitis B</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:E35"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD42674-B79C-4743-A66B-037DBDD5B8D8}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,57 +1306,65 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>

--- a/rules/map_sti.xlsx
+++ b/rules/map_sti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649052B-D009-4382-B7F2-9E871AB5DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9392EAFC-1026-4392-94B3-C97433581890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <t>SYPH</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>Hepatitis C</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1282,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/rules/map_sti.xlsx
+++ b/rules/map_sti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9392EAFC-1026-4392-94B3-C97433581890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203540E-B0EB-4E9E-AF49-DF14B69A11F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20310" yWindow="-1560" windowWidth="14400" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
   <si>
     <t>SYPH</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Hepatitis C</t>
+  </si>
+  <si>
+    <t>e411</t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,6 +1275,23 @@
         <v>91</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1281,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD42674-B79C-4743-A66B-037DBDD5B8D8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
